--- a/统计.xlsx
+++ b/统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{939E94EA-6C96-4900-B523-CF5D817CCD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECC87AA-F2A2-44C3-8976-38748EBDCF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5270C8F1-6B76-463D-9211-2891EA8507AB}"/>
   </bookViews>
@@ -224,7 +224,8 @@
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -236,10 +237,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$27</c:f>
+              <c:f>Sheet1!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -316,6 +317,9 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -324,7 +328,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5527-4229-B24F-D8C6863342FE}"/>
+              <c16:uniqueId val="{00000000-1CF6-42DA-A3FC-72CD5092E5D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -337,11 +341,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1668798047"/>
-        <c:axId val="1668798463"/>
+        <c:axId val="1852347519"/>
+        <c:axId val="1852350015"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1668798047"/>
+        <c:axId val="1852347519"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -383,7 +387,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1668798463"/>
+        <c:crossAx val="1852350015"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -391,7 +395,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1668798463"/>
+        <c:axId val="1852350015"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -442,7 +446,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1668798047"/>
+        <c:crossAx val="1852347519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -576,10 +580,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$27</c:f>
+              <c:f>Sheet1!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0.76875414914804163</c:v>
                 </c:pt>
@@ -657,6 +661,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.25506625097427904</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1306963645673323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -664,7 +671,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-545C-40CB-B3EC-EA7AE50A2B4B}"/>
+              <c16:uniqueId val="{00000000-7081-474A-8C6D-278F4325BA0E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -677,11 +684,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1801556879"/>
-        <c:axId val="1801559375"/>
+        <c:axId val="1854834735"/>
+        <c:axId val="1854812687"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1801556879"/>
+        <c:axId val="1854834735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -723,7 +730,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1801559375"/>
+        <c:crossAx val="1854812687"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -731,7 +738,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1801559375"/>
+        <c:axId val="1854812687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -782,7 +789,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1801556879"/>
+        <c:crossAx val="1854834735"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -795,7 +802,7 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1955,22 +1962,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:colOff>274320</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
+      <xdr:colOff>579120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
+        <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{905D429E-1436-428D-BB1C-0223D2015922}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD0A642-4746-4C45-936A-37F2217CB8E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1991,22 +1998,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>563880</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3">
+        <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539043F2-EF17-4D81-B53D-255E0E1FD7BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4A4035-FCC5-4960-B2FF-E59B2423259B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,10 +2331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176F916-26A8-4C45-9EC2-0E9253DB5856}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2381,7 +2388,7 @@
         <v>2534</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E27" si="0">C3/D3</f>
+        <f t="shared" ref="E3:E28" si="0">C3/D3</f>
         <v>0.23717442778216258</v>
       </c>
     </row>
@@ -2817,10 +2824,28 @@
         <v>0.25506625097427904</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>283</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1021</v>
+      </c>
+      <c r="D28">
+        <v>7812</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0.1306963645673323</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/统计.xlsx
+++ b/统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECC87AA-F2A2-44C3-8976-38748EBDCF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A34112C-9CA8-4182-A20A-72A1A4931D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5270C8F1-6B76-463D-9211-2891EA8507AB}"/>
+    <workbookView xWindow="5760" yWindow="348" windowWidth="17280" windowHeight="8964" xr2:uid="{5270C8F1-6B76-463D-9211-2891EA8507AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -320,6 +320,9 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -664,6 +667,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.1306963645673323</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.5640693151007899E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2331,10 +2337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176F916-26A8-4C45-9EC2-0E9253DB5856}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2388,7 +2394,7 @@
         <v>2534</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E28" si="0">C3/D3</f>
+        <f t="shared" ref="E3:E29" si="0">C3/D3</f>
         <v>0.23717442778216258</v>
       </c>
     </row>
@@ -2840,6 +2846,24 @@
       <c r="E28">
         <f t="shared" si="0"/>
         <v>0.1306963645673323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>284</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>472</v>
+      </c>
+      <c r="D29">
+        <v>8483</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>5.5640693151007899E-2</v>
       </c>
     </row>
   </sheetData>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A34112C-9CA8-4182-A20A-72A1A4931D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AB1029-B7E0-4A0F-AAF4-4F651D9CFF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="348" windowWidth="17280" windowHeight="8964" xr2:uid="{5270C8F1-6B76-463D-9211-2891EA8507AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5270C8F1-6B76-463D-9211-2891EA8507AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,10 @@
   </si>
   <si>
     <t>73双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74双</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -323,6 +327,12 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -670,6 +680,12 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5.5640693151007899E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.11035497517013058</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.20639183563851216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2337,10 +2353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176F916-26A8-4C45-9EC2-0E9253DB5856}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:E29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2394,7 +2410,7 @@
         <v>2534</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E29" si="0">C3/D3</f>
+        <f t="shared" ref="E3:E31" si="0">C3/D3</f>
         <v>0.23717442778216258</v>
       </c>
     </row>
@@ -2864,6 +2880,42 @@
       <c r="E29">
         <f t="shared" si="0"/>
         <v>5.5640693151007899E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>600</v>
+      </c>
+      <c r="D30">
+        <v>5437</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0.11035497517013058</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>285</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>1537</v>
+      </c>
+      <c r="D31">
+        <v>7447</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0.20639183563851216</v>
       </c>
     </row>
   </sheetData>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AB1029-B7E0-4A0F-AAF4-4F651D9CFF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2E4BB2-7500-4603-88F2-F14F191454DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5270C8F1-6B76-463D-9211-2891EA8507AB}"/>
   </bookViews>
@@ -241,10 +241,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$31</c:f>
+              <c:f>Sheet1!$B$2:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -333,6 +333,9 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -593,10 +596,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$31</c:f>
+              <c:f>Sheet1!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0.76875414914804163</c:v>
                 </c:pt>
@@ -686,6 +689,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.20639183563851216</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.10099337748344371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2353,10 +2359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176F916-26A8-4C45-9EC2-0E9253DB5856}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2410,7 +2416,7 @@
         <v>2534</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E31" si="0">C3/D3</f>
+        <f t="shared" ref="E3:E32" si="0">C3/D3</f>
         <v>0.23717442778216258</v>
       </c>
     </row>
@@ -2916,6 +2922,24 @@
       <c r="E31">
         <f t="shared" si="0"/>
         <v>0.20639183563851216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>286</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>732</v>
+      </c>
+      <c r="D32">
+        <v>7248</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0.10099337748344371</v>
       </c>
     </row>
   </sheetData>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2E4BB2-7500-4603-88F2-F14F191454DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1206153-4CE9-4B74-A688-AF04F754C741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5270C8F1-6B76-463D-9211-2891EA8507AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,10 @@
   </si>
   <si>
     <t>74双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75双</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,12 +243,119 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61双</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62双</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63双</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64双</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65双</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66双</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70双</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71双</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>73双</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74双</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>75双</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>287</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$32</c:f>
+              <c:f>Sheet1!$B$2:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -337,6 +448,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -367,6 +484,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -594,12 +712,119 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61双</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62双</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63双</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64双</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65双</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66双</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70双</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71双</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>73双</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74双</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>75双</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>287</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$32</c:f>
+              <c:f>Sheet1!$E$2:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0.76875414914804163</c:v>
                 </c:pt>
@@ -692,6 +917,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.10099337748344371</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.1414071510957324</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.14594039054470709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -722,7 +953,8 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="#,##0_);\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -744,6 +976,9 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1995,8 +2230,8 @@
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
@@ -2031,8 +2266,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
@@ -2359,10 +2594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176F916-26A8-4C45-9EC2-0E9253DB5856}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2416,7 +2651,7 @@
         <v>2534</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E32" si="0">C3/D3</f>
+        <f t="shared" ref="E3:E34" si="0">C3/D3</f>
         <v>0.23717442778216258</v>
       </c>
     </row>
@@ -2940,6 +3175,42 @@
       <c r="E32">
         <f t="shared" si="0"/>
         <v>0.10099337748344371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>613</v>
+      </c>
+      <c r="D33">
+        <v>4335</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0.1414071510957324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>287</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>994</v>
+      </c>
+      <c r="D34">
+        <v>6811</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0.14594039054470709</v>
       </c>
     </row>
   </sheetData>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1206153-4CE9-4B74-A688-AF04F754C741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E1EC9E-11DB-4FAC-9645-2BB70B75DA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5270C8F1-6B76-463D-9211-2891EA8507AB}"/>
   </bookViews>
@@ -245,9 +245,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:f>Sheet1!$A$2:$A$35</c:f>
               <c:strCache>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -346,16 +346,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>290</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$34</c:f>
+              <c:f>Sheet1!$B$2:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -453,6 +456,9 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -714,9 +720,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:f>Sheet1!$A$2:$A$35</c:f>
               <c:strCache>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -815,16 +821,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>290</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$34</c:f>
+              <c:f>Sheet1!$E$2:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0.76875414914804163</c:v>
                 </c:pt>
@@ -923,6 +932,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.14594039054470709</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.4741035856573712E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2594,10 +2606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176F916-26A8-4C45-9EC2-0E9253DB5856}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2651,7 +2663,7 @@
         <v>2534</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E34" si="0">C3/D3</f>
+        <f t="shared" ref="E3:E35" si="0">C3/D3</f>
         <v>0.23717442778216258</v>
       </c>
     </row>
@@ -3211,6 +3223,24 @@
       <c r="E34">
         <f t="shared" si="0"/>
         <v>0.14594039054470709</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>290</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>469</v>
+      </c>
+      <c r="D35">
+        <v>6275</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>7.4741035856573712E-2</v>
       </c>
     </row>
   </sheetData>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E1EC9E-11DB-4FAC-9645-2BB70B75DA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3908F3-7C44-4E24-800E-B63EC6CF7011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5270C8F1-6B76-463D-9211-2891EA8507AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,10 @@
   </si>
   <si>
     <t>75双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77双</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,9 +249,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$35</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -349,16 +353,22 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>77双</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>291</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$35</c:f>
+              <c:f>Sheet1!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -459,6 +469,12 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -720,9 +736,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$35</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -824,16 +840,22 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>77双</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>291</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$35</c:f>
+              <c:f>Sheet1!$E$2:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0.76875414914804163</c:v>
                 </c:pt>
@@ -935,6 +957,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>7.4741035856573712E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.39254333887437665</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.7155460906601762E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2606,10 +2634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176F916-26A8-4C45-9EC2-0E9253DB5856}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2663,7 +2691,7 @@
         <v>2534</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E35" si="0">C3/D3</f>
+        <f>C3/D3</f>
         <v>0.23717442778216258</v>
       </c>
     </row>
@@ -2681,7 +2709,7 @@
         <v>3775</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>C4/D4</f>
         <v>8.8741721854304637E-2</v>
       </c>
     </row>
@@ -2699,7 +2727,7 @@
         <v>2619</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>C5/D5</f>
         <v>0.4032073310423826</v>
       </c>
     </row>
@@ -2717,7 +2745,7 @@
         <v>3368</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>C6/D6</f>
         <v>4.0973871733966744E-2</v>
       </c>
     </row>
@@ -2735,7 +2763,7 @@
         <v>4261</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>C7/D7</f>
         <v>0.39333489791128845</v>
       </c>
     </row>
@@ -2753,7 +2781,7 @@
         <v>2828</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>C8/D8</f>
         <v>0.17821782178217821</v>
       </c>
     </row>
@@ -2771,7 +2799,7 @@
         <v>4572</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>C9/D9</f>
         <v>9.2300962379702534E-2</v>
       </c>
     </row>
@@ -2789,7 +2817,7 @@
         <v>4659</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>C10/D10</f>
         <v>6.8254990341274954E-2</v>
       </c>
     </row>
@@ -2807,7 +2835,7 @@
         <v>2838</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>C11/D11</f>
         <v>0.26638477801268501</v>
       </c>
     </row>
@@ -2825,7 +2853,7 @@
         <v>4182</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>C12/D12</f>
         <v>0.2699665231946437</v>
       </c>
     </row>
@@ -2843,7 +2871,7 @@
         <v>2676</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>C13/D13</f>
         <v>0.19095665171898354</v>
       </c>
     </row>
@@ -2861,7 +2889,7 @@
         <v>4365</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>C14/D14</f>
         <v>0.18556701030927836</v>
       </c>
     </row>
@@ -2879,7 +2907,7 @@
         <v>4398</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>C15/D15</f>
         <v>0.1593906321055025</v>
       </c>
     </row>
@@ -2897,7 +2925,7 @@
         <v>2803</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f>C16/D16</f>
         <v>0.21334284694969674</v>
       </c>
     </row>
@@ -2915,7 +2943,7 @@
         <v>4293</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f>C17/D17</f>
         <v>4.40251572327044E-2</v>
       </c>
     </row>
@@ -2933,7 +2961,7 @@
         <v>4748</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>C18/D18</f>
         <v>0.17101937657961247</v>
       </c>
     </row>
@@ -2951,7 +2979,7 @@
         <v>5244</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f>C19/D19</f>
         <v>0.17620137299771166</v>
       </c>
     </row>
@@ -2969,7 +2997,7 @@
         <v>3640</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>C20/D20</f>
         <v>0.17115384615384616</v>
       </c>
     </row>
@@ -2987,7 +3015,7 @@
         <v>5060</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f>C21/D21</f>
         <v>0.14486166007905138</v>
       </c>
     </row>
@@ -3005,7 +3033,7 @@
         <v>4643</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f>C22/D22</f>
         <v>0.3030368296360112</v>
       </c>
     </row>
@@ -3023,7 +3051,7 @@
         <v>3028</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f>C23/D23</f>
         <v>7.1003963011889035E-2</v>
       </c>
     </row>
@@ -3041,7 +3069,7 @@
         <v>4132</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f>C24/D24</f>
         <v>0.15125847047434657</v>
       </c>
     </row>
@@ -3059,7 +3087,7 @@
         <v>5834</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f>C25/D25</f>
         <v>0.1369557764826877</v>
       </c>
     </row>
@@ -3077,7 +3105,7 @@
         <v>7164</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f>C26/D26</f>
         <v>7.2724734785036299E-2</v>
       </c>
     </row>
@@ -3095,7 +3123,7 @@
         <v>5132</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f>C27/D27</f>
         <v>0.25506625097427904</v>
       </c>
     </row>
@@ -3113,7 +3141,7 @@
         <v>7812</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f>C28/D28</f>
         <v>0.1306963645673323</v>
       </c>
     </row>
@@ -3131,7 +3159,7 @@
         <v>8483</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f>C29/D29</f>
         <v>5.5640693151007899E-2</v>
       </c>
     </row>
@@ -3149,7 +3177,7 @@
         <v>5437</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f>C30/D30</f>
         <v>0.11035497517013058</v>
       </c>
     </row>
@@ -3167,7 +3195,7 @@
         <v>7447</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f>C31/D31</f>
         <v>0.20639183563851216</v>
       </c>
     </row>
@@ -3185,7 +3213,7 @@
         <v>7248</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f>C32/D32</f>
         <v>0.10099337748344371</v>
       </c>
     </row>
@@ -3203,7 +3231,7 @@
         <v>4335</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f>C33/D33</f>
         <v>0.1414071510957324</v>
       </c>
     </row>
@@ -3221,7 +3249,7 @@
         <v>6811</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f>C34/D34</f>
         <v>0.14594039054470709</v>
       </c>
     </row>
@@ -3239,8 +3267,44 @@
         <v>6275</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f>C35/D35</f>
         <v>7.4741035856573712E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>1653</v>
+      </c>
+      <c r="D36">
+        <v>4211</v>
+      </c>
+      <c r="E36">
+        <f>C36/D36</f>
+        <v>0.39254333887437665</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>291</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>310</v>
+      </c>
+      <c r="D37">
+        <v>6574</v>
+      </c>
+      <c r="E37">
+        <f>C37/D37</f>
+        <v>4.7155460906601762E-2</v>
       </c>
     </row>
   </sheetData>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3908F3-7C44-4E24-800E-B63EC6CF7011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBEEC5C-B161-46AF-8206-2C10DFA6FDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5270C8F1-6B76-463D-9211-2891EA8507AB}"/>
   </bookViews>
@@ -249,9 +249,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -359,16 +359,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>294</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$37</c:f>
+              <c:f>Sheet1!$B$2:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -476,6 +479,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -736,9 +742,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -846,16 +852,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>294</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$37</c:f>
+              <c:f>Sheet1!$E$2:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0.76875414914804163</c:v>
                 </c:pt>
@@ -963,6 +972,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>4.7155460906601762E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.47084690553745928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2634,10 +2646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176F916-26A8-4C45-9EC2-0E9253DB5856}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2673,7 +2685,7 @@
         <v>4519</v>
       </c>
       <c r="E2">
-        <f>C2/D2</f>
+        <f t="shared" ref="E2:E38" si="0">C2/D2</f>
         <v>0.76875414914804163</v>
       </c>
     </row>
@@ -2691,7 +2703,7 @@
         <v>2534</v>
       </c>
       <c r="E3">
-        <f>C3/D3</f>
+        <f t="shared" si="0"/>
         <v>0.23717442778216258</v>
       </c>
     </row>
@@ -2709,7 +2721,7 @@
         <v>3775</v>
       </c>
       <c r="E4">
-        <f>C4/D4</f>
+        <f t="shared" si="0"/>
         <v>8.8741721854304637E-2</v>
       </c>
     </row>
@@ -2727,7 +2739,7 @@
         <v>2619</v>
       </c>
       <c r="E5">
-        <f>C5/D5</f>
+        <f t="shared" si="0"/>
         <v>0.4032073310423826</v>
       </c>
     </row>
@@ -2745,7 +2757,7 @@
         <v>3368</v>
       </c>
       <c r="E6">
-        <f>C6/D6</f>
+        <f t="shared" si="0"/>
         <v>4.0973871733966744E-2</v>
       </c>
     </row>
@@ -2763,7 +2775,7 @@
         <v>4261</v>
       </c>
       <c r="E7">
-        <f>C7/D7</f>
+        <f t="shared" si="0"/>
         <v>0.39333489791128845</v>
       </c>
     </row>
@@ -2781,7 +2793,7 @@
         <v>2828</v>
       </c>
       <c r="E8">
-        <f>C8/D8</f>
+        <f t="shared" si="0"/>
         <v>0.17821782178217821</v>
       </c>
     </row>
@@ -2799,7 +2811,7 @@
         <v>4572</v>
       </c>
       <c r="E9">
-        <f>C9/D9</f>
+        <f t="shared" si="0"/>
         <v>9.2300962379702534E-2</v>
       </c>
     </row>
@@ -2817,7 +2829,7 @@
         <v>4659</v>
       </c>
       <c r="E10">
-        <f>C10/D10</f>
+        <f t="shared" si="0"/>
         <v>6.8254990341274954E-2</v>
       </c>
     </row>
@@ -2835,7 +2847,7 @@
         <v>2838</v>
       </c>
       <c r="E11">
-        <f>C11/D11</f>
+        <f t="shared" si="0"/>
         <v>0.26638477801268501</v>
       </c>
     </row>
@@ -2853,7 +2865,7 @@
         <v>4182</v>
       </c>
       <c r="E12">
-        <f>C12/D12</f>
+        <f t="shared" si="0"/>
         <v>0.2699665231946437</v>
       </c>
     </row>
@@ -2871,7 +2883,7 @@
         <v>2676</v>
       </c>
       <c r="E13">
-        <f>C13/D13</f>
+        <f t="shared" si="0"/>
         <v>0.19095665171898354</v>
       </c>
     </row>
@@ -2889,7 +2901,7 @@
         <v>4365</v>
       </c>
       <c r="E14">
-        <f>C14/D14</f>
+        <f t="shared" si="0"/>
         <v>0.18556701030927836</v>
       </c>
     </row>
@@ -2907,7 +2919,7 @@
         <v>4398</v>
       </c>
       <c r="E15">
-        <f>C15/D15</f>
+        <f t="shared" si="0"/>
         <v>0.1593906321055025</v>
       </c>
     </row>
@@ -2925,7 +2937,7 @@
         <v>2803</v>
       </c>
       <c r="E16">
-        <f>C16/D16</f>
+        <f t="shared" si="0"/>
         <v>0.21334284694969674</v>
       </c>
     </row>
@@ -2943,7 +2955,7 @@
         <v>4293</v>
       </c>
       <c r="E17">
-        <f>C17/D17</f>
+        <f t="shared" si="0"/>
         <v>4.40251572327044E-2</v>
       </c>
     </row>
@@ -2961,7 +2973,7 @@
         <v>4748</v>
       </c>
       <c r="E18">
-        <f>C18/D18</f>
+        <f t="shared" si="0"/>
         <v>0.17101937657961247</v>
       </c>
     </row>
@@ -2979,7 +2991,7 @@
         <v>5244</v>
       </c>
       <c r="E19">
-        <f>C19/D19</f>
+        <f t="shared" si="0"/>
         <v>0.17620137299771166</v>
       </c>
     </row>
@@ -2997,7 +3009,7 @@
         <v>3640</v>
       </c>
       <c r="E20">
-        <f>C20/D20</f>
+        <f t="shared" si="0"/>
         <v>0.17115384615384616</v>
       </c>
     </row>
@@ -3015,7 +3027,7 @@
         <v>5060</v>
       </c>
       <c r="E21">
-        <f>C21/D21</f>
+        <f t="shared" si="0"/>
         <v>0.14486166007905138</v>
       </c>
     </row>
@@ -3033,7 +3045,7 @@
         <v>4643</v>
       </c>
       <c r="E22">
-        <f>C22/D22</f>
+        <f t="shared" si="0"/>
         <v>0.3030368296360112</v>
       </c>
     </row>
@@ -3051,7 +3063,7 @@
         <v>3028</v>
       </c>
       <c r="E23">
-        <f>C23/D23</f>
+        <f t="shared" si="0"/>
         <v>7.1003963011889035E-2</v>
       </c>
     </row>
@@ -3069,7 +3081,7 @@
         <v>4132</v>
       </c>
       <c r="E24">
-        <f>C24/D24</f>
+        <f t="shared" si="0"/>
         <v>0.15125847047434657</v>
       </c>
     </row>
@@ -3087,7 +3099,7 @@
         <v>5834</v>
       </c>
       <c r="E25">
-        <f>C25/D25</f>
+        <f t="shared" si="0"/>
         <v>0.1369557764826877</v>
       </c>
     </row>
@@ -3105,7 +3117,7 @@
         <v>7164</v>
       </c>
       <c r="E26">
-        <f>C26/D26</f>
+        <f t="shared" si="0"/>
         <v>7.2724734785036299E-2</v>
       </c>
     </row>
@@ -3123,7 +3135,7 @@
         <v>5132</v>
       </c>
       <c r="E27">
-        <f>C27/D27</f>
+        <f t="shared" si="0"/>
         <v>0.25506625097427904</v>
       </c>
     </row>
@@ -3141,7 +3153,7 @@
         <v>7812</v>
       </c>
       <c r="E28">
-        <f>C28/D28</f>
+        <f t="shared" si="0"/>
         <v>0.1306963645673323</v>
       </c>
     </row>
@@ -3159,7 +3171,7 @@
         <v>8483</v>
       </c>
       <c r="E29">
-        <f>C29/D29</f>
+        <f t="shared" si="0"/>
         <v>5.5640693151007899E-2</v>
       </c>
     </row>
@@ -3177,7 +3189,7 @@
         <v>5437</v>
       </c>
       <c r="E30">
-        <f>C30/D30</f>
+        <f t="shared" si="0"/>
         <v>0.11035497517013058</v>
       </c>
     </row>
@@ -3195,7 +3207,7 @@
         <v>7447</v>
       </c>
       <c r="E31">
-        <f>C31/D31</f>
+        <f t="shared" si="0"/>
         <v>0.20639183563851216</v>
       </c>
     </row>
@@ -3213,7 +3225,7 @@
         <v>7248</v>
       </c>
       <c r="E32">
-        <f>C32/D32</f>
+        <f t="shared" si="0"/>
         <v>0.10099337748344371</v>
       </c>
     </row>
@@ -3231,7 +3243,7 @@
         <v>4335</v>
       </c>
       <c r="E33">
-        <f>C33/D33</f>
+        <f t="shared" si="0"/>
         <v>0.1414071510957324</v>
       </c>
     </row>
@@ -3249,7 +3261,7 @@
         <v>6811</v>
       </c>
       <c r="E34">
-        <f>C34/D34</f>
+        <f t="shared" si="0"/>
         <v>0.14594039054470709</v>
       </c>
     </row>
@@ -3267,7 +3279,7 @@
         <v>6275</v>
       </c>
       <c r="E35">
-        <f>C35/D35</f>
+        <f t="shared" si="0"/>
         <v>7.4741035856573712E-2</v>
       </c>
     </row>
@@ -3285,7 +3297,7 @@
         <v>4211</v>
       </c>
       <c r="E36">
-        <f>C36/D36</f>
+        <f t="shared" si="0"/>
         <v>0.39254333887437665</v>
       </c>
     </row>
@@ -3303,8 +3315,26 @@
         <v>6574</v>
       </c>
       <c r="E37">
-        <f>C37/D37</f>
+        <f t="shared" si="0"/>
         <v>4.7155460906601762E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>294</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>2891</v>
+      </c>
+      <c r="D38">
+        <v>6140</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0.47084690553745928</v>
       </c>
     </row>
   </sheetData>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBEEC5C-B161-46AF-8206-2C10DFA6FDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2860D99F-999C-4155-A911-04921853F855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5270C8F1-6B76-463D-9211-2891EA8507AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,10 @@
   </si>
   <si>
     <t>77双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79双</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -249,9 +253,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:f>Sheet1!$A$2:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -362,16 +366,22 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>79双</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>295</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$38</c:f>
+              <c:f>Sheet1!$B$2:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -482,6 +492,12 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -742,9 +758,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:f>Sheet1!$A$2:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -855,16 +871,22 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>79双</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>295</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$38</c:f>
+              <c:f>Sheet1!$E$2:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0.76875414914804163</c:v>
                 </c:pt>
@@ -975,6 +997,12 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.47084690553745928</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.11341176470588235</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.2892818365131065E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2646,10 +2674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176F916-26A8-4C45-9EC2-0E9253DB5856}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2685,7 +2713,7 @@
         <v>4519</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E38" si="0">C2/D2</f>
+        <f t="shared" ref="E2:E40" si="0">C2/D2</f>
         <v>0.76875414914804163</v>
       </c>
     </row>
@@ -3335,6 +3363,42 @@
       <c r="E38">
         <f t="shared" si="0"/>
         <v>0.47084690553745928</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>482</v>
+      </c>
+      <c r="D39">
+        <v>4250</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0.11341176470588235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>295</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>341</v>
+      </c>
+      <c r="D40">
+        <v>6447</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>5.2892818365131065E-2</v>
       </c>
     </row>
   </sheetData>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2860D99F-999C-4155-A911-04921853F855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB55D1D2-5275-465D-87D1-11509309FA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5270C8F1-6B76-463D-9211-2891EA8507AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,10 @@
   </si>
   <si>
     <t>79双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81双</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,9 +257,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:f>Sheet1!$A$2:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -372,16 +376,22 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>81双</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$40</c:f>
+              <c:f>Sheet1!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -497,6 +507,12 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -758,9 +774,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:f>Sheet1!$A$2:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -877,16 +893,22 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>81双</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$40</c:f>
+              <c:f>Sheet1!$E$2:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0.76875414914804163</c:v>
                 </c:pt>
@@ -1003,6 +1025,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>5.2892818365131065E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.30475272960822092</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.13750974785547179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2674,10 +2702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176F916-26A8-4C45-9EC2-0E9253DB5856}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2713,7 +2741,7 @@
         <v>4519</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E40" si="0">C2/D2</f>
+        <f t="shared" ref="E2:E42" si="0">C2/D2</f>
         <v>0.76875414914804163</v>
       </c>
     </row>
@@ -3399,6 +3427,42 @@
       <c r="E40">
         <f t="shared" si="0"/>
         <v>5.2892818365131065E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>298</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>1898</v>
+      </c>
+      <c r="D41">
+        <v>6228</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0.30475272960822092</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>529</v>
+      </c>
+      <c r="D42">
+        <v>3847</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>0.13750974785547179</v>
       </c>
     </row>
   </sheetData>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB55D1D2-5275-465D-87D1-11509309FA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0542841D-F68C-4CCB-BCCC-F441BED94B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5270C8F1-6B76-463D-9211-2891EA8507AB}"/>
   </bookViews>
@@ -257,9 +257,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$42</c:f>
+              <c:f>Sheet1!$A$2:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -382,16 +382,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>81双</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>299</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$42</c:f>
+              <c:f>Sheet1!$B$2:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -513,6 +516,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -774,9 +780,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$42</c:f>
+              <c:f>Sheet1!$A$2:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -899,16 +905,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>81双</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>299</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$42</c:f>
+              <c:f>Sheet1!$E$2:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0.76875414914804163</c:v>
                 </c:pt>
@@ -1031,6 +1040,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.13750974785547179</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.2829076620825152E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2702,10 +2714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176F916-26A8-4C45-9EC2-0E9253DB5856}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="76" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2741,7 +2753,7 @@
         <v>4519</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E42" si="0">C2/D2</f>
+        <f t="shared" ref="E2:E43" si="0">C2/D2</f>
         <v>0.76875414914804163</v>
       </c>
     </row>
@@ -3463,6 +3475,24 @@
       <c r="E42">
         <f t="shared" si="0"/>
         <v>0.13750974785547179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>299</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>567</v>
+      </c>
+      <c r="D43">
+        <v>6108</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>9.2829076620825152E-2</v>
       </c>
     </row>
   </sheetData>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0542841D-F68C-4CCB-BCCC-F441BED94B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CE37C9-5E72-43F2-B8DC-496E6ED70E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5270C8F1-6B76-463D-9211-2891EA8507AB}"/>
   </bookViews>
@@ -257,9 +257,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$43</c:f>
+              <c:f>Sheet1!$A$2:$A$44</c:f>
               <c:strCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -385,16 +385,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>300</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$43</c:f>
+              <c:f>Sheet1!$B$2:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -520,6 +523,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -780,9 +786,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$43</c:f>
+              <c:f>Sheet1!$A$2:$A$44</c:f>
               <c:strCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -908,16 +914,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>300</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$43</c:f>
+              <c:f>Sheet1!$E$2:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0.76875414914804163</c:v>
                 </c:pt>
@@ -1043,6 +1052,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>9.2829076620825152E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.065959952885748E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2714,10 +2726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176F916-26A8-4C45-9EC2-0E9253DB5856}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="76" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="76" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2753,7 +2765,7 @@
         <v>4519</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E43" si="0">C2/D2</f>
+        <f t="shared" ref="E2:E44" si="0">C2/D2</f>
         <v>0.76875414914804163</v>
       </c>
     </row>
@@ -3493,6 +3505,24 @@
       <c r="E43">
         <f t="shared" si="0"/>
         <v>9.2829076620825152E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>300</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>412</v>
+      </c>
+      <c r="D44">
+        <v>6792</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>6.065959952885748E-2</v>
       </c>
     </row>
   </sheetData>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CE37C9-5E72-43F2-B8DC-496E6ED70E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC4CD40-946E-4E8B-B788-EA75386F5501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5270C8F1-6B76-463D-9211-2891EA8507AB}"/>
   </bookViews>
@@ -257,9 +257,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$44</c:f>
+              <c:f>Sheet1!$A$2:$A$45</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -388,16 +388,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>302</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$44</c:f>
+              <c:f>Sheet1!$B$2:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -525,6 +528,9 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -786,9 +792,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$44</c:f>
+              <c:f>Sheet1!$A$2:$A$45</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -917,16 +923,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>302</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$44</c:f>
+              <c:f>Sheet1!$E$2:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0.76875414914804163</c:v>
                 </c:pt>
@@ -1055,6 +1064,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>6.065959952885748E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.682459108855048E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2726,10 +2738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176F916-26A8-4C45-9EC2-0E9253DB5856}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="76" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2765,7 +2777,7 @@
         <v>4519</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E44" si="0">C2/D2</f>
+        <f t="shared" ref="E2:E45" si="0">C2/D2</f>
         <v>0.76875414914804163</v>
       </c>
     </row>
@@ -3523,6 +3535,24 @@
       <c r="E44">
         <f t="shared" si="0"/>
         <v>6.065959952885748E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>302</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>403</v>
+      </c>
+      <c r="D45">
+        <v>7092</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>5.682459108855048E-2</v>
       </c>
     </row>
   </sheetData>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC4CD40-946E-4E8B-B788-EA75386F5501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22E6C24-B539-4E11-A45C-A03EFB1A7C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5270C8F1-6B76-463D-9211-2891EA8507AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,10 @@
   </si>
   <si>
     <t>81双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83双</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,9 +261,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$45</c:f>
+              <c:f>Sheet1!$A$2:$A$46</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -391,16 +395,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>83双</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$45</c:f>
+              <c:f>Sheet1!$B$2:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -531,6 +538,9 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -792,9 +802,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$45</c:f>
+              <c:f>Sheet1!$A$2:$A$46</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -926,16 +936,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>83双</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$45</c:f>
+              <c:f>Sheet1!$E$2:$E$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0.76875414914804163</c:v>
                 </c:pt>
@@ -1067,6 +1080,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>5.682459108855048E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.12530989407257156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2738,10 +2754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176F916-26A8-4C45-9EC2-0E9253DB5856}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2777,7 +2793,7 @@
         <v>4519</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E45" si="0">C2/D2</f>
+        <f t="shared" ref="E2:E46" si="0">C2/D2</f>
         <v>0.76875414914804163</v>
       </c>
     </row>
@@ -3553,6 +3569,29 @@
       <c r="E45">
         <f t="shared" si="0"/>
         <v>5.682459108855048E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>556</v>
+      </c>
+      <c r="D46">
+        <v>4437</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>0.12530989407257156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22E6C24-B539-4E11-A45C-A03EFB1A7C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55821231-0191-4174-939B-BC8837333272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5270C8F1-6B76-463D-9211-2891EA8507AB}"/>
   </bookViews>
@@ -261,9 +261,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$46</c:f>
+              <c:f>Sheet1!$A$2:$A$60</c:f>
               <c:strCache>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -398,16 +398,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>83双</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>303</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$46</c:f>
+              <c:f>Sheet1!$B$2:$B$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -541,6 +544,9 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -802,9 +808,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$46</c:f>
+              <c:f>Sheet1!$A$2:$A$60</c:f>
               <c:strCache>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -939,16 +945,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>83双</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>303</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$46</c:f>
+              <c:f>Sheet1!$E$2:$E$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>0.76875414914804163</c:v>
                 </c:pt>
@@ -1083,6 +1092,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.12530989407257156</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.12087599544937429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2756,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176F916-26A8-4C45-9EC2-0E9253DB5856}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2793,7 +2805,7 @@
         <v>4519</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E46" si="0">C2/D2</f>
+        <f t="shared" ref="E2:E47" si="0">C2/D2</f>
         <v>0.76875414914804163</v>
       </c>
     </row>
@@ -3592,6 +3604,19 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>303</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>850</v>
+      </c>
+      <c r="D47">
+        <v>7032</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>0.12087599544937429</v>
       </c>
     </row>
   </sheetData>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55821231-0191-4174-939B-BC8837333272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C7BD0D-E7CB-435A-B4C8-862C66D23082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5270C8F1-6B76-463D-9211-2891EA8507AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,10 @@
   </si>
   <si>
     <t>83双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84双</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,7 +267,7 @@
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$60</c:f>
               <c:strCache>
-                <c:ptCount val="46"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -401,6 +405,12 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>84双</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>305</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -548,6 +558,12 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,7 +826,7 @@
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$60</c:f>
               <c:strCache>
-                <c:ptCount val="46"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -948,6 +964,12 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>84双</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>305</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1095,6 +1117,12 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.12087599544937429</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6348928727590728E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.28148445873526262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2766,10 +2794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176F916-26A8-4C45-9EC2-0E9253DB5856}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2805,7 +2833,7 @@
         <v>4519</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E47" si="0">C2/D2</f>
+        <f t="shared" ref="E2:E49" si="0">C2/D2</f>
         <v>0.76875414914804163</v>
       </c>
     </row>
@@ -3617,6 +3645,42 @@
       <c r="E47">
         <f t="shared" si="0"/>
         <v>0.12087599544937429</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>212</v>
+      </c>
+      <c r="D48">
+        <v>4574</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>4.6348928727590728E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>305</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>2101</v>
+      </c>
+      <c r="D49">
+        <v>7464</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>0.28148445873526262</v>
       </c>
     </row>
   </sheetData>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C7BD0D-E7CB-435A-B4C8-862C66D23082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4528B90-B136-4B44-A54D-69741BA3E35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5270C8F1-6B76-463D-9211-2891EA8507AB}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{5270C8F1-6B76-463D-9211-2891EA8507AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,10 @@
   </si>
   <si>
     <t>84双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85双</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -267,7 +271,7 @@
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$60</c:f>
               <c:strCache>
-                <c:ptCount val="48"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -411,6 +415,15 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>85双</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>307</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -564,6 +577,15 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -826,7 +848,7 @@
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$60</c:f>
               <c:strCache>
-                <c:ptCount val="48"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -970,6 +992,15 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>85双</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>307</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1113,7 +1144,7 @@
                   <c:v>5.682459108855048E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.12530989407257156</c:v>
+                  <c:v>0.12485913905792202</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.12087599544937429</c:v>
@@ -1123,6 +1154,15 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.28148445873526262</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.1347483901740997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.23881653454133636</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.8335939943697214E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2794,10 +2834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176F916-26A8-4C45-9EC2-0E9253DB5856}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2833,7 +2873,7 @@
         <v>4519</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E49" si="0">C2/D2</f>
+        <f t="shared" ref="E2:E52" si="0">C2/D2</f>
         <v>0.76875414914804163</v>
       </c>
     </row>
@@ -3619,14 +3659,14 @@
         <v>4</v>
       </c>
       <c r="C46">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D46">
         <v>4437</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>0.12530989407257156</v>
+        <v>0.12485913905792202</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3681,6 +3721,60 @@
       <c r="E49">
         <f t="shared" si="0"/>
         <v>0.28148445873526262</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>565</v>
+      </c>
+      <c r="D50">
+        <v>4193</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>0.1347483901740997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>306</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>1687</v>
+      </c>
+      <c r="D51">
+        <v>7064</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>0.23881653454133636</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>307</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>373</v>
+      </c>
+      <c r="D52">
+        <v>6394</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>5.8335939943697214E-2</v>
       </c>
     </row>
   </sheetData>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4528B90-B136-4B44-A54D-69741BA3E35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347FF1D6-49BB-4B0E-9930-359514F28271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{5270C8F1-6B76-463D-9211-2891EA8507AB}"/>
   </bookViews>
@@ -271,7 +271,7 @@
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$60</c:f>
               <c:strCache>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -424,6 +424,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>308</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -848,7 +851,7 @@
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$60</c:f>
               <c:strCache>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -1001,6 +1004,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>308</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2834,10 +2840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176F916-26A8-4C45-9EC2-0E9253DB5856}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3777,6 +3783,11 @@
         <v>5.8335939943697214E-2</v>
       </c>
     </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>308</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347FF1D6-49BB-4B0E-9930-359514F28271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C6822F-277E-482F-BCB8-53E4C2DB56CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{5270C8F1-6B76-463D-9211-2891EA8507AB}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{5270C8F1-6B76-463D-9211-2891EA8507AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$60</c:f>
               <c:strCache>
-                <c:ptCount val="52"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -423,9 +423,6 @@
                   <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>307</c:v>
-                </c:pt>
-                <c:pt idx="51">
                   <c:v>308</c:v>
                 </c:pt>
               </c:strCache>
@@ -851,7 +848,7 @@
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$60</c:f>
               <c:strCache>
-                <c:ptCount val="52"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>258</c:v>
                 </c:pt>
@@ -1003,9 +1000,6 @@
                   <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>307</c:v>
-                </c:pt>
-                <c:pt idx="51">
                   <c:v>308</c:v>
                 </c:pt>
               </c:strCache>
@@ -2840,10 +2834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176F916-26A8-4C45-9EC2-0E9253DB5856}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3767,7 +3761,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -3781,11 +3775,6 @@
       <c r="E52">
         <f t="shared" si="0"/>
         <v>5.8335939943697214E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>308</v>
       </c>
     </row>
   </sheetData>
